--- a/各组员进度表/【长沙】-徐佳进度表.xlsx
+++ b/各组员进度表/【长沙】-徐佳进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10511"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="进度表" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -34,31 +34,49 @@
     <t>今天的收获是什么</t>
   </si>
   <si>
+    <t>遇到的问题</t>
+  </si>
+  <si>
     <t>第一天</t>
   </si>
   <si>
     <t>计划把第一个页面样式做好</t>
   </si>
   <si>
+    <t>第一个静态页面完成百分之七十</t>
+  </si>
+  <si>
+    <t>收货就是重新温故了一下静态页面</t>
+  </si>
+  <si>
+    <t>不知道那些地方用到ajax</t>
+  </si>
+  <si>
     <t>第二天</t>
   </si>
   <si>
-    <t>把第二个页面样式做好</t>
+    <t>计划第二个页面样式</t>
+  </si>
+  <si>
+    <t>第一个静态页面完成，做JS效果和一些ajax</t>
+  </si>
+  <si>
+    <t>有点蒙</t>
+  </si>
+  <si>
+    <t>ajax还是有点蒙，想要的效果没实现</t>
   </si>
   <si>
     <t>第三天</t>
   </si>
   <si>
-    <t>搞js效果的内容</t>
+    <t>做JS效果和ajax</t>
   </si>
   <si>
     <t>第四天</t>
   </si>
   <si>
-    <t>继续完善未完成的内容</t>
-  </si>
-  <si>
-    <t>第五天</t>
+    <t>继续完善</t>
   </si>
 </sst>
 </file>
@@ -66,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,30 +105,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,14 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,84 +226,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,181 +264,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,11 +452,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,45 +520,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,163 +554,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="46" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1047,13 +1070,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G4" sqref="G4:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.7222222222222" customWidth="1"/>
     <col min="2" max="2" width="22.6296296296296" customWidth="1"/>
@@ -1063,7 +1086,7 @@
     <col min="6" max="6" width="23.7222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1" spans="1:6">
+    <row r="1" ht="28" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,66 +1105,207 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" ht="30" customHeight="1" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.872916666666667</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+    <row r="3" ht="30" customHeight="1" spans="1:10">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+    <row r="4" ht="30" customHeight="1" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.857638888888889</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+    <row r="5" ht="30" customHeight="1" spans="1:10">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+    <row r="6" ht="30" customHeight="1" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:J5"/>
+    <mergeCell ref="G6:J8"/>
+    <mergeCell ref="G9:J12"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/各组员进度表/【长沙】-徐佳进度表.xlsx
+++ b/各组员进度表/【长沙】-徐佳进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>日期</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>做JS效果和ajax</t>
+  </si>
+  <si>
+    <t>ajax的效果还是怎么完成，原理知道了</t>
+  </si>
+  <si>
+    <t>大概知道了ajax的思路，还有很多东西有待解决</t>
+  </si>
+  <si>
+    <t>不知道如何把一些ajax的图片变成变量如何拼接结束后，在重新一个图片拼接不同的图片</t>
   </si>
   <si>
     <t>第四天</t>
@@ -84,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -100,6 +109,73 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -122,128 +198,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,181 +273,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,54 +458,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,7 +480,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,11 +543,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,137 +578,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,9 +728,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,10 +1076,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:J5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1110,7 +1116,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:10">
+    <row r="2" ht="30" customHeight="1" spans="1:19">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1133,8 +1139,17 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:10">
+    <row r="3" ht="30" customHeight="1" spans="1:19">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1145,8 +1160,17 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:10">
+    <row r="4" ht="30" customHeight="1" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1163,116 +1187,205 @@
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:10">
+    <row r="5" ht="30" customHeight="1" spans="1:19">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:10">
+    <row r="6" ht="30" customHeight="1" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.854166666666667</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:19">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:19">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+    <row r="9" spans="1:19">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+    <row r="10" spans="1:19">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+    <row r="11" spans="1:19">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+    <row r="12" spans="1:19">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1301,10 +1414,10 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="F9:F12"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:J5"/>
-    <mergeCell ref="G6:J8"/>
-    <mergeCell ref="G9:J12"/>
+    <mergeCell ref="G2:S3"/>
+    <mergeCell ref="G4:S5"/>
+    <mergeCell ref="G6:S8"/>
+    <mergeCell ref="G9:S12"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/各组员进度表/【长沙】-徐佳进度表.xlsx
+++ b/各组员进度表/【长沙】-徐佳进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>继续完善</t>
+  </si>
+  <si>
+    <t>ajax效果的东西基本完成但是这几天都光顾做样式去了，很多效果都没搞，还第二个页面杂志也没来的急做</t>
+  </si>
+  <si>
+    <t>收货是通过这几天的项目，发现以前有好多特别懵的东西，现在做了项目后，逐渐理解了</t>
+  </si>
+  <si>
+    <t>发现自己还好多东西有待学习，提高，自己还是要多去做做一些项目</t>
   </si>
 </sst>
 </file>
@@ -94,9 +103,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -115,15 +124,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,37 +187,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,75 +244,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -273,31 +282,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,145 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,37 +470,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,17 +509,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,24 +567,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,18 +1087,19 @@
   <sheetPr/>
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.7222222222222" customWidth="1"/>
     <col min="2" max="2" width="22.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="22.7222222222222" customWidth="1"/>
-    <col min="4" max="4" width="16.5462962962963" customWidth="1"/>
-    <col min="5" max="5" width="17.8148148148148" customWidth="1"/>
-    <col min="6" max="6" width="23.7222222222222" customWidth="1"/>
+    <col min="3" max="3" width="134.555555555556" customWidth="1"/>
+    <col min="4" max="4" width="54.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="34.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="85" customWidth="1"/>
+    <col min="8" max="8" width="168.666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:8">
@@ -1306,11 +1316,19 @@
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.863194444444444</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
